--- a/Data/Dataset_S3.xlsx
+++ b/Data/Dataset_S3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nheld/Library/CloudStorage/Box-Box/Colimitation/Draft_theory_paper/PNAS Revision 2 V1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmanhart/Work/Research documents/Colimitation/Theory paper/Submission 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80933D06-E750-6840-A962-D8C656051179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA8880-892B-B343-92EB-2D94CF38B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="30240" windowHeight="15320" xr2:uid="{1F142938-5C4B-474F-9ACE-DD153345C42E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="13500" xr2:uid="{1F142938-5C4B-474F-9ACE-DD153345C42E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Habitat</t>
   </si>
   <si>
-    <t>experiment type</t>
-  </si>
-  <si>
-    <t>media notes</t>
-  </si>
-  <si>
     <t>marine</t>
   </si>
   <si>
@@ -165,39 +159,21 @@
     <t>Martinez, M. E., J. M. Jimenez, and F. El Yousfi. 1999. Influence of phosphorus concentration and temperature on growth and phosphorus uptake by the microalga Scenedesmus obliquus. Bioresource Technology 67:233-240.</t>
   </si>
   <si>
-    <t>Tilman, D. Tests of Resource Competition Theory Using Four Species of Lake Michigan Algae. Ecology 62, 802–815 (1981).</t>
-  </si>
-  <si>
-    <t>Sommer, U. 1986. “Nitrate- and Silicate-Competition among Antarctic Phytoplankton.” Marine Biology 91 (3): 345–51.</t>
-  </si>
-  <si>
     <t>Nishikawa, T. and Y. Hori. 2004. Effects of nitrogen, phosphorus and silicon on a growth of a diatom Coscinodiscus wailesii causing Porphyra bleaching isolated from Harima-Nada, Seto Inland Sea, Japan. Nippon Suisan Gakkaishi 70:872-878.</t>
   </si>
   <si>
-    <t>Bren, A., Hart, Y., Dekel, E., Koster, D. &amp; Alon, U. The last generation of bacterial growth in limiting nutrient. BMC Syst. Biol. 7, (2013).</t>
-  </si>
-  <si>
     <t>Nishikawa, T. and Y. Hori. 2004. Effects of nitrogen, phosphorus and silicon on the growth of the diatom Eucampia zodiacus caused bleaching of seaweed w isolated from Harima-Nada, Seto Inland Sea, Japan. Nippon Suisan Gakkaishi 70:31-38.</t>
   </si>
   <si>
-    <t>﻿Dean, A.C.R. and Rogers, P.L. (1967) The cell size and macromolecular composition of Aerobacter aerogenes in various systems of continuous culture. Biochim. Biophys. Acta 148, 267-279.</t>
-  </si>
-  <si>
     <t>Li, T., L. Hu, and Z. Shi. 2000. Effects of nutrients on the growth and the composition of nitrogen and phosphorus of Skeletonema costatum and Nitzschia closterium. Oceanologia et limnologia sinica 31:52-58.</t>
   </si>
   <si>
     <t>Timmermans, K. R., B. van der Wagt, M. J. W. Veldhuis, A. Maatman, and H. J. W. de Baar. 2005. Physiological responses of three species of marine pico-phytoplankton to ammonium, phosphate, iron and light limitation. Journal of Sea Research 53:109-120.</t>
   </si>
   <si>
-    <t>note on organism</t>
-  </si>
-  <si>
     <t>coastal diatom</t>
   </si>
   <si>
-    <t>lake michigan diatom</t>
-  </si>
-  <si>
     <t>polar diatom</t>
   </si>
   <si>
@@ -225,9 +201,6 @@
     <t>Organism</t>
   </si>
   <si>
-    <t>Data is shown for sets of organism and two nutrients (Nutrient 1 and Nutrient 2)</t>
-  </si>
-  <si>
     <t>Nutrient 1 Li_multiplicative</t>
   </si>
   <si>
@@ -255,9 +228,6 @@
     <t>Nutrient 2 conc hi (mM)</t>
   </si>
   <si>
-    <t>Li = limitation coefficent (calculated for each nutrient), Meff = colimitation index (calculated for each organism + nutrient pair), K = measured Monod K</t>
-  </si>
-  <si>
     <t>Nutrient 1 Li_additive</t>
   </si>
   <si>
@@ -285,19 +255,52 @@
     <t>Nutrient 2 K common unit (mM)</t>
   </si>
   <si>
-    <t>When a range of resource concentrations is given, the environmental in situ concentration is calculated as the median of the high and low concentrations</t>
-  </si>
-  <si>
-    <t>Berges JA, Driskill AM, Guinn EJ, Pokrzywinski K, Quinlan J, von Korff B, et al. (2021) Role of nearshore benthic algae in the Lake Michigan silica cycle. PLoS ONE 16(8): e0256838.</t>
-  </si>
-  <si>
     <t>GEOTRACES Intermediate Data Product Group (2023). The GEOTRACES Intermediate Data Product 2021v2 (IDP2021v2). NERC EDS British Oceanographic Data Centre NOC. doi:10.5285/ff46f034-f47c-05f9-e053-6c86abc0dc7e.</t>
   </si>
   <si>
-    <t xml:space="preserve">Palmer, B.F and Clegg, D. Physiology and pathophysiology of potassium homeostasis. Advances in Phys. Ed.40, 4 (2016) </t>
-  </si>
-  <si>
-    <t>Dove, A. &amp; Chapra, S.C. (2015) Long-term trends of nutrients and trophic response variables for the Great Lakes. L&amp;O 60, 2</t>
+    <t>ammonium is &lt;0.25 umol per kg seawater at surface = 0.256 uM (geotraces 2021 intermediate data product)</t>
+  </si>
+  <si>
+    <t>nitrate is 1-15uM in seawater (higher at the poles) (geotraces 2021 intermediate data product)</t>
+  </si>
+  <si>
+    <t>environmental concentrations from human gut and surface soils</t>
+  </si>
+  <si>
+    <t>using high polar silicate concentrations (geotraces 2021 intermediate data product)</t>
+  </si>
+  <si>
+    <t>Nutrient 1 R/K</t>
+  </si>
+  <si>
+    <t>Nutrient 2 R/K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References for resource concentrations: </t>
+  </si>
+  <si>
+    <t>Nutrient 1 range (mM)</t>
+  </si>
+  <si>
+    <t>Nutrient 2 range (mM)</t>
+  </si>
+  <si>
+    <t>Dataset S3. Monod growth data and resource concentration data, collected from the literature.</t>
+  </si>
+  <si>
+    <t>Data is shown for sets of organism and two nutrients (Nutrient 1 and Nutrient 2).</t>
+  </si>
+  <si>
+    <t>Li = limitation coefficent (calculated for each nutrient), Meff = effective number of limiting nutrients (calculated for each organism + nutrient pair), K = measured half-saturation concentration K from the Monod model.</t>
+  </si>
+  <si>
+    <t>When a range of resource concentrations is given, the environmental in situ concentration is calculated as the mean of the high and low concentrations.</t>
+  </si>
+  <si>
+    <t>Note environmental nutrient concentrations are estimates based on literature data, and do not account for spatial or temporal variability.</t>
+  </si>
+  <si>
+    <t>Berges JA, Driskill AM, Guinn EJ, Pokrzywinski K, Quinlan J, von Korff B, et al. (2021) Role of nearshore benthic algae in the Lake Michigan silica cycle. PLoS ONE 16: e0256838.</t>
   </si>
   <si>
     <r>
@@ -308,8 +311,9 @@
         <i/>
         <sz val="12"/>
         <color rgb="FF474747"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> A (</t>
     </r>
@@ -318,8 +322,9 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2007</t>
     </r>
@@ -328,8 +333,9 @@
         <i/>
         <sz val="12"/>
         <color rgb="FF474747"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>) Regulation of </t>
     </r>
@@ -338,8 +344,9 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>magnesium</t>
     </r>
@@ -348,59 +355,77 @@
         <i/>
         <sz val="12"/>
         <color rgb="FF474747"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> homeostasis and transport in mammalian cells. Arch Biochem Biophys 458:90–102</t>
     </r>
-  </si>
-  <si>
-    <t>note on environmental nutrient concentrations</t>
-  </si>
-  <si>
-    <t>ammonium is &lt;0.25 umol per kg seawater at surface = 0.256 uM (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>phosphate is 0.06-0.54uM in surface ocean; nitrate is 1-15uM in seawater (higher at the poles) (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>lake michigan 0.1-1.5 g silicate/m3 (Berges 2021); phosphate &lt;7ug/L (Dove 2015)</t>
-  </si>
-  <si>
-    <t>nitrate is 1-15uM in seawater (higher at the poles); used polar silicate concentration (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>nitrate is 1-15uM in seawater (higher at the poles) (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>environmental concentrations from human gut and surface soils</t>
-  </si>
-  <si>
-    <t>nitrate is 1-15uM in seawater (higher at the poles)  (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>using high polar silicate concentrations (geotraces 2021 intermediate data product)</t>
-  </si>
-  <si>
-    <t>Nutrient 1 R/K</t>
-  </si>
-  <si>
-    <t>Nutrient 2 R/K</t>
-  </si>
-  <si>
-    <t>Dataset S3. Monod growth data and resource concentration data, collected from the literature</t>
-  </si>
-  <si>
-    <t>Note environmental nutrient concentrations are estimates based on literature data, and do not account for spatial or temporal variability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References for resource concentrations: </t>
-  </si>
-  <si>
-    <t>Nutrient 1 range (mM)</t>
-  </si>
-  <si>
-    <t>Nutrient 2 range (mM)</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Palmer BF, Clegg D (2016) Physiology and pathophysiology of potassium homeostasis. Advances in Phys Ed 40:480-490.</t>
+  </si>
+  <si>
+    <t>Dove A, Chapra SC (2015) Long-term trends of nutrients and trophic response variables for the Great Lakes. Limnol Oceanogr 60:696-721.</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Media notes</t>
+  </si>
+  <si>
+    <t>Note on organism</t>
+  </si>
+  <si>
+    <t>Note on environmental nutrient concentrations</t>
+  </si>
+  <si>
+    <t>nitrate is 1-15uM in seawater (higher at the poles)  (GEOTRACES 2021 Intermediate Data Product)</t>
+  </si>
+  <si>
+    <t>ammonium is &lt;0.25 umol per kg seawater at surface = 0.256 uM (GEOTRACES 2021 Intermediate Data Product)</t>
+  </si>
+  <si>
+    <t>phosphate is 0.06-0.54uM in surface ocean; nitrate is 1-15uM in seawater (higher at the poles) (GEOTRACES 2021 Intermediate Data Product)</t>
+  </si>
+  <si>
+    <t>nitrate is 1-15uM in seawater (higher at the poles); used polar silicate concentration (GEOTRACES 2021 Intermediate Data Product)</t>
+  </si>
+  <si>
+    <t>nitrate is 1-15uM in seawater (higher at the poles) (GEOTRACES 2021 Intermediate Data Product)</t>
+  </si>
+  <si>
+    <t>Lake Michigan diatom</t>
+  </si>
+  <si>
+    <t>Lake Michigan 0.1-1.5 g silicate/m3 (Berges 2021); phosphate &lt;7ug/L (Dove 2015)</t>
+  </si>
+  <si>
+    <t>Tilman, D. 1981. Tests of Resource Competition Theory Using Four Species of Lake Michigan Algae. Ecology 62, 802–815.</t>
+  </si>
+  <si>
+    <t>Bren, A., Hart, Y., Dekel, E., Koster, D. &amp; Alon, U. 2013. The last generation of bacterial growth in limiting nutrient. BMC Syst. Biol. 7.</t>
+  </si>
+  <si>
+    <t>Tilman, D. 1981. Tests of Resource Competition Theory Using Four Species of Lake Michigan Algae. Ecology 62:802–815.</t>
+  </si>
+  <si>
+    <t>﻿Dean, A.C.R. and Rogers, P.L. 1967. The cell size and macromolecular composition of Aerobacter aerogenes in various systems of continuous culture. Biochim. Biophys. Acta 148:267-279.</t>
+  </si>
+  <si>
+    <t>Sommer, U. 1986. Nitrate- and Silicate-Competition among Antarctic Phytoplankton. Marine Biology 91:345–51.</t>
   </si>
 </sst>
 </file>
@@ -409,9 +434,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,20 +493,6 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,6 +504,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,13 +554,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -859,174 +874,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB338245-8738-2143-B3BA-F88F5DDE75B3}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="12" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="217.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" customWidth="1"/>
+    <col min="19" max="19" width="118.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.5" customWidth="1"/>
     <col min="25" max="25" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>100</v>
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>102</v>
+      <c r="A6" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>88</v>
+      <c r="A9" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="X12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Z12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>68</v>
+      <c r="AG12" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -1045,7 +1072,8 @@
       <c r="E13">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13">
+        <f t="shared" ref="F13:F17" si="0">AVERAGE(G13:H13)</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G13">
@@ -1066,77 +1094,77 @@
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="14">
+        <v>97</v>
+      </c>
+      <c r="T13" s="11">
         <f>F13/D13</f>
         <v>0.75757575757575757</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="11">
         <f>J13/E13</f>
         <v>0.31944444444444442</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="11">
         <f>IF(F13/(F13+D13) &lt; J13/(J13+E13), D13/(D13+F13), 0)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="11">
         <f>(D13/F13)/(1+(D13/F13)+(E13/J13))</f>
         <v>0.2421825143586471</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="11">
         <f>D13/(F13+D13)</f>
         <v>0.56896551724137934</v>
       </c>
-      <c r="Y13" s="15">
-        <f>(U13^2*(2*T13+U13))/((T13+U13)*(T13*U13*(T13+U13)+T13^2+T13*U13+U13^2))</f>
+      <c r="Y13" s="11">
+        <f t="shared" ref="Y13:Y33" si="1">(U13^2*(2*T13+U13))/((T13+U13)*(T13*U13*(T13+U13)+T13^2+T13*U13+U13^2))</f>
         <v>0.14748115416104246</v>
       </c>
-      <c r="Z13" s="15">
-        <f>IF(J13/(J13+E13)&lt;F13/(F13+D13), E13/(E13+J13),0)</f>
+      <c r="Z13" s="11">
+        <f t="shared" ref="Z13:Z33" si="2">IF(J13/(J13+E13)&lt;F13/(F13+D13), E13/(E13+J13),0)</f>
         <v>0.75789473684210518</v>
       </c>
-      <c r="AA13" s="15">
-        <f>(E13/J13)/(1+(E13/J13)+(D13/F13))</f>
+      <c r="AA13" s="11">
+        <f t="shared" ref="AA13:AA33" si="3">(E13/J13)/(1+(E13/J13)+(D13/F13))</f>
         <v>0.57434588385449903</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="11">
         <f>E13/(E13+J13)</f>
         <v>0.75789473684210518</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="11">
         <f>(T13^2*(2*U13+T13))/((T13+U13)*(T13*U13*(T13+U13)+T13^2+T13*U13+U13^2))</f>
         <v>0.63137517041957469</v>
       </c>
-      <c r="AD13" s="15">
-        <f>SUM(V13,Z13)/MAX(V13,Z13)</f>
+      <c r="AD13" s="11">
+        <f t="shared" ref="AD13:AD33" si="4">SUM(V13,Z13)/MAX(V13,Z13)</f>
         <v>1</v>
       </c>
-      <c r="AE13" s="15">
-        <f>SUM(X13,AB13)/MAX(X13,AB13)</f>
+      <c r="AE13" s="11">
+        <f t="shared" ref="AE13:AE33" si="5">SUM(X13,AB13)/MAX(X13,AB13)</f>
         <v>1.7507183908045976</v>
       </c>
-      <c r="AF13" s="15">
-        <f>SUM(W13,AA13)/MAX(W13,AA13)</f>
+      <c r="AF13" s="11">
+        <f t="shared" ref="AF13:AF33" si="6">SUM(W13,AA13)/MAX(W13,AA13)</f>
         <v>1.4216666666666666</v>
       </c>
-      <c r="AG13" s="15">
-        <f t="shared" ref="AG13" si="0">SUM(Y13,AC13)/MAX(Y13,AC13)</f>
+      <c r="AG13" s="11">
+        <f t="shared" ref="AG13" si="7">SUM(Y13,AC13)/MAX(Y13,AC13)</f>
         <v>1.2335871935905163</v>
       </c>
     </row>
@@ -1157,7 +1185,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F17" si="1">AVERAGE(G14:H14)</f>
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G14">
@@ -1167,11 +1195,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I33" si="2">H14-G14</f>
+        <f t="shared" ref="I14:I33" si="8">H14-G14</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J30" si="3">AVERAGE(K14:L14)</f>
+        <f t="shared" ref="J14:J33" si="9">AVERAGE(K14:L14)</f>
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="K14">
@@ -1181,81 +1209,81 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M33" si="4">L14-K14</f>
+        <f t="shared" ref="M14:M27" si="10">L14-K14</f>
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
         <v>30</v>
       </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" s="14">
-        <f t="shared" ref="T14:T33" si="5">F14/D14</f>
+        <v>98</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" ref="T14:T33" si="11">F14/D14</f>
         <v>1.0389610389610389</v>
       </c>
-      <c r="U14" s="14">
-        <f t="shared" ref="U14:U33" si="6">J14/E14</f>
+      <c r="U14" s="11">
+        <f t="shared" ref="U14:U33" si="12">J14/E14</f>
         <v>0.31944444444444442</v>
       </c>
-      <c r="V14" s="15">
-        <f t="shared" ref="V14:V33" si="7">IF(F14/(F14+D14) &lt; J14/(J14+E14), D14/(D14+F14), 0)</f>
+      <c r="V14" s="11">
+        <f t="shared" ref="V14:V33" si="13">IF(F14/(F14+D14) &lt; J14/(J14+E14), D14/(D14+F14), 0)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="15">
-        <f t="shared" ref="W14:W33" si="8">(D14/F14)/(1+(D14/F14)+(E14/J14))</f>
+      <c r="W14" s="11">
+        <f t="shared" ref="W14:W33" si="14">(D14/F14)/(1+(D14/F14)+(E14/J14))</f>
         <v>0.18898730124853272</v>
       </c>
-      <c r="X14" s="15">
-        <f t="shared" ref="X14:X33" si="9">D14/(F14+D14)</f>
+      <c r="X14" s="11">
+        <f t="shared" ref="X14:X33" si="15">D14/(F14+D14)</f>
         <v>0.49044585987261152</v>
       </c>
-      <c r="Y14" s="15">
-        <f>(U14^2*(2*T14+U14))/((T14+U14)*(T14*U14*(T14+U14)+T14^2+T14*U14+U14^2))</f>
+      <c r="Y14" s="11">
+        <f t="shared" si="1"/>
         <v>9.1686685780160412E-2</v>
       </c>
-      <c r="Z14" s="15">
-        <f>IF(J14/(J14+E14)&lt;F14/(F14+D14), E14/(E14+J14),0)</f>
+      <c r="Z14" s="11">
+        <f t="shared" si="2"/>
         <v>0.75789473684210518</v>
       </c>
-      <c r="AA14" s="15">
-        <f>(E14/J14)/(1+(E14/J14)+(D14/F14))</f>
+      <c r="AA14" s="11">
+        <f t="shared" si="3"/>
         <v>0.61466225589584889</v>
       </c>
-      <c r="AB14" s="15">
-        <f t="shared" ref="AB14:AB33" si="10">E14/(E14+J14)</f>
+      <c r="AB14" s="11">
+        <f t="shared" ref="AB14:AB33" si="16">E14/(E14+J14)</f>
         <v>0.75789473684210518</v>
       </c>
-      <c r="AC14" s="15">
-        <f t="shared" ref="AC14:AC33" si="11">(T14^2*(2*U14+T14))/((T14+U14)*(T14*U14*(T14+U14)+T14^2+T14*U14+U14^2))</f>
+      <c r="AC14" s="11">
+        <f t="shared" ref="AC14:AC33" si="17">(T14^2*(2*U14+T14))/((T14+U14)*(T14*U14*(T14+U14)+T14^2+T14*U14+U14^2))</f>
         <v>0.67878587452304351</v>
       </c>
-      <c r="AD14" s="15">
-        <f>SUM(V14,Z14)/MAX(V14,Z14)</f>
+      <c r="AD14" s="11">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="15">
-        <f>SUM(X14,AB14)/MAX(X14,AB14)</f>
+      <c r="AE14" s="11">
+        <f t="shared" si="5"/>
         <v>1.6471160651096959</v>
       </c>
-      <c r="AF14" s="15">
-        <f>SUM(W14,AA14)/MAX(W14,AA14)</f>
+      <c r="AF14" s="11">
+        <f t="shared" si="6"/>
         <v>1.3074652777777778</v>
       </c>
-      <c r="AG14" s="15">
-        <f t="shared" ref="AG14:AG33" si="12">SUM(Y14,AC14)/MAX(Y14,AC14)</f>
+      <c r="AG14" s="11">
+        <f t="shared" ref="AG14:AG33" si="18">SUM(Y14,AC14)/MAX(Y14,AC14)</f>
         <v>1.1350745341372712</v>
       </c>
     </row>
@@ -1276,7 +1304,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5649999999999999E-2</v>
       </c>
       <c r="G15">
@@ -1286,88 +1314,88 @@
         <v>0.19</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18870000000000001</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K15">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T15" s="14">
+        <v>102</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="11"/>
+        <v>43.477272727272727</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="12"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="13"/>
+        <v>2.2483392948390395E-2</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="14"/>
+        <v>2.2457050380759288E-2</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="15"/>
+        <v>2.2483392948390395E-2</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2426807625238281E-2</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1716455648652505E-3</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="16"/>
+        <v>1.1985617259288853E-3</v>
+      </c>
+      <c r="AC15" s="11">
+        <f t="shared" si="17"/>
+        <v>1.1343929025006897E-4</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="11">
         <f t="shared" si="5"/>
-        <v>43.477272727272727</v>
-      </c>
-      <c r="U15" s="14">
+        <v>1.0533087567646096</v>
+      </c>
+      <c r="AF15" s="11">
         <f t="shared" si="6"/>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="V15" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2483392948390395E-2</v>
-      </c>
-      <c r="W15" s="15">
-        <f t="shared" si="8"/>
-        <v>2.2457050380759288E-2</v>
-      </c>
-      <c r="X15" s="15">
-        <f t="shared" si="9"/>
-        <v>2.2483392948390395E-2</v>
-      </c>
-      <c r="Y15" s="15">
-        <f>(U15^2*(2*T15+U15))/((T15+U15)*(T15*U15*(T15+U15)+T15^2+T15*U15+U15^2))</f>
-        <v>2.2426807625238281E-2</v>
-      </c>
-      <c r="Z15" s="15">
-        <f>IF(J15/(J15+E15)&lt;F15/(F15+D15), E15/(E15+J15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
-        <f>(E15/J15)/(1+(E15/J15)+(D15/F15))</f>
-        <v>1.1716455648652505E-3</v>
-      </c>
-      <c r="AB15" s="15">
-        <f t="shared" si="10"/>
-        <v>1.1985617259288853E-3</v>
-      </c>
-      <c r="AC15" s="15">
-        <f t="shared" si="11"/>
-        <v>1.1343929025006897E-4</v>
-      </c>
-      <c r="AD15" s="15">
-        <f>SUM(V15,Z15)/MAX(V15,Z15)</f>
-        <v>1</v>
-      </c>
-      <c r="AE15" s="15">
-        <f>SUM(X15,AB15)/MAX(X15,AB15)</f>
-        <v>1.0533087567646096</v>
-      </c>
-      <c r="AF15" s="15">
-        <f>SUM(W15,AA15)/MAX(W15,AA15)</f>
         <v>1.0521727272727273</v>
       </c>
-      <c r="AG15" s="15">
-        <f t="shared" si="12"/>
+      <c r="AG15" s="11">
+        <f t="shared" si="18"/>
         <v>1.0050582005315107</v>
       </c>
     </row>
@@ -1388,7 +1416,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G16">
@@ -1398,88 +1426,88 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
-      </c>
-      <c r="T16" s="14">
+        <v>99</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="11"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="12"/>
+        <v>691.24423963133643</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="13"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" si="14"/>
+        <v>0.14875302464483445</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="15"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.14892465513498429</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="3"/>
+        <v>1.229691670397298E-3</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="16"/>
+        <v>1.444576845496848E-3</v>
+      </c>
+      <c r="AC16" s="11">
+        <f t="shared" si="17"/>
+        <v>2.0106070957892513E-5</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="11">
         <f t="shared" si="5"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="U16" s="14">
+        <v>1.0096993016769074</v>
+      </c>
+      <c r="AF16" s="11">
         <f t="shared" si="6"/>
-        <v>691.24423963133643</v>
-      </c>
-      <c r="V16" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14875302464483445</v>
-      </c>
-      <c r="X16" s="15">
-        <f t="shared" si="9"/>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="Y16" s="15">
-        <f>(U16^2*(2*T16+U16))/((T16+U16)*(T16*U16*(T16+U16)+T16^2+T16*U16+U16^2))</f>
-        <v>0.14892465513498429</v>
-      </c>
-      <c r="Z16" s="15">
-        <f>IF(J16/(J16+E16)&lt;F16/(F16+D16), E16/(E16+J16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
-        <f>(E16/J16)/(1+(E16/J16)+(D16/F16))</f>
-        <v>1.229691670397298E-3</v>
-      </c>
-      <c r="AB16" s="15">
-        <f t="shared" si="10"/>
-        <v>1.444576845496848E-3</v>
-      </c>
-      <c r="AC16" s="15">
-        <f t="shared" si="11"/>
-        <v>2.0106070957892513E-5</v>
-      </c>
-      <c r="AD16" s="15">
-        <f>SUM(V16,Z16)/MAX(V16,Z16)</f>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="15">
-        <f>SUM(X16,AB16)/MAX(X16,AB16)</f>
-        <v>1.0096993016769074</v>
-      </c>
-      <c r="AF16" s="15">
-        <f>SUM(W16,AA16)/MAX(W16,AA16)</f>
         <v>1.0082666666666666</v>
       </c>
-      <c r="AG16" s="15">
-        <f t="shared" si="12"/>
+      <c r="AG16" s="11">
+        <f t="shared" si="18"/>
         <v>1.0001350083432436</v>
       </c>
     </row>
@@ -1500,7 +1528,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G17">
@@ -1510,85 +1538,85 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.125</v>
       </c>
       <c r="K17">
         <v>5.125</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
-      </c>
-      <c r="T17" s="14">
+        <v>100</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="11"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="12"/>
+        <v>85.274542429284523</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="13"/>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="14"/>
+        <v>3.5740603417615292E-2</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="15"/>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4001859832020455E-2</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1176638779310201E-2</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="16"/>
+        <v>1.1590904707720198E-2</v>
+      </c>
+      <c r="AC17" s="11">
+        <f t="shared" si="17"/>
+        <v>4.731022711386884E-3</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="11">
         <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="U17" s="14">
+        <v>1.3206816969135919</v>
+      </c>
+      <c r="AF17" s="11">
         <f t="shared" si="6"/>
-        <v>85.274542429284523</v>
-      </c>
-      <c r="V17" s="15">
-        <f t="shared" si="7"/>
-        <v>3.614457831325301E-2</v>
-      </c>
-      <c r="W17" s="15">
-        <f t="shared" si="8"/>
-        <v>3.5740603417615292E-2</v>
-      </c>
-      <c r="X17" s="15">
-        <f t="shared" si="9"/>
-        <v>3.614457831325301E-2</v>
-      </c>
-      <c r="Y17" s="15">
-        <f>(U17^2*(2*T17+U17))/((T17+U17)*(T17*U17*(T17+U17)+T17^2+T17*U17+U17^2))</f>
-        <v>3.4001859832020455E-2</v>
-      </c>
-      <c r="Z17" s="15">
-        <f>IF(J17/(J17+E17)&lt;F17/(F17+D17), E17/(E17+J17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15">
-        <f>(E17/J17)/(1+(E17/J17)+(D17/F17))</f>
-        <v>1.1176638779310201E-2</v>
-      </c>
-      <c r="AB17" s="15">
-        <f t="shared" si="10"/>
-        <v>1.1590904707720198E-2</v>
-      </c>
-      <c r="AC17" s="15">
-        <f t="shared" si="11"/>
-        <v>4.731022711386884E-3</v>
-      </c>
-      <c r="AD17" s="15">
-        <f>SUM(V17,Z17)/MAX(V17,Z17)</f>
-        <v>1</v>
-      </c>
-      <c r="AE17" s="15">
-        <f>SUM(X17,AB17)/MAX(X17,AB17)</f>
-        <v>1.3206816969135919</v>
-      </c>
-      <c r="AF17" s="15">
-        <f>SUM(W17,AA17)/MAX(W17,AA17)</f>
         <v>1.3127154471544715</v>
       </c>
-      <c r="AG17" s="15">
-        <f t="shared" si="12"/>
+      <c r="AG17" s="11">
+        <f t="shared" si="18"/>
         <v>1.139140115710128</v>
       </c>
     </row>
@@ -1619,11 +1647,11 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K18" s="3">
@@ -1633,75 +1661,75 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M18">
+        <f t="shared" si="10"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="11"/>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="12"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="13"/>
+        <v>0.62903225806451613</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="14"/>
+        <v>0.59068534645967441</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="15"/>
+        <v>0.62903225806451613</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.61976322695959252</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="3"/>
+        <v>6.0961756910261254E-2</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="16"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="17"/>
+        <v>1.1508400597084995E-2</v>
+      </c>
+      <c r="AD18" s="11">
         <f t="shared" si="4"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" t="s">
-        <v>94</v>
-      </c>
-      <c r="T18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="11">
         <f t="shared" si="5"/>
-        <v>0.58974358974358976</v>
-      </c>
-      <c r="U18" s="14">
+        <v>1.2367703218767048</v>
+      </c>
+      <c r="AF18" s="11">
         <f t="shared" si="6"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="7"/>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59068534645967441</v>
-      </c>
-      <c r="X18" s="15">
-        <f t="shared" si="9"/>
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="Y18" s="15">
-        <f>(U18^2*(2*T18+U18))/((T18+U18)*(T18*U18*(T18+U18)+T18^2+T18*U18+U18^2))</f>
-        <v>0.61976322695959252</v>
-      </c>
-      <c r="Z18" s="15">
-        <f>IF(J18/(J18+E18)&lt;F18/(F18+D18), E18/(E18+J18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15">
-        <f>(E18/J18)/(1+(E18/J18)+(D18/F18))</f>
-        <v>6.0961756910261254E-2</v>
-      </c>
-      <c r="AB18" s="15">
-        <f t="shared" si="10"/>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="AC18" s="15">
-        <f t="shared" si="11"/>
-        <v>1.1508400597084995E-2</v>
-      </c>
-      <c r="AD18" s="15">
-        <f>SUM(V18,Z18)/MAX(V18,Z18)</f>
-        <v>1</v>
-      </c>
-      <c r="AE18" s="15">
-        <f>SUM(X18,AB18)/MAX(X18,AB18)</f>
-        <v>1.2367703218767048</v>
-      </c>
-      <c r="AF18" s="15">
-        <f>SUM(W18,AA18)/MAX(W18,AA18)</f>
         <v>1.1032051282051283</v>
       </c>
-      <c r="AG18" s="15">
-        <f t="shared" si="12"/>
+      <c r="AG18" s="11">
+        <f t="shared" si="18"/>
         <v>1.0185690278100921</v>
       </c>
     </row>
@@ -1732,11 +1760,11 @@
         <v>0.31</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12.2</v>
       </c>
       <c r="K19">
@@ -1746,78 +1774,78 @@
         <v>24</v>
       </c>
       <c r="M19">
+        <f t="shared" si="10"/>
+        <v>23.6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="11"/>
+        <v>98.07692307692308</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="12"/>
+        <v>2440</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0093167701863354E-2</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0089074569138944E-2</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="15"/>
+        <v>1.0093167701863354E-2</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0077938378224021E-2</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11">
+        <f t="shared" si="3"/>
+        <v>4.0553499607982841E-4</v>
+      </c>
+      <c r="AB19" s="11">
+        <f t="shared" si="16"/>
+        <v>4.0966816878328555E-4</v>
+      </c>
+      <c r="AC19" s="11">
+        <f t="shared" si="17"/>
+        <v>3.0747978013518711E-5</v>
+      </c>
+      <c r="AD19" s="11">
         <f t="shared" si="4"/>
-        <v>23.6</v>
-      </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="11">
         <f t="shared" si="5"/>
-        <v>98.07692307692308</v>
-      </c>
-      <c r="U19" s="14">
+        <v>1.0405886616456055</v>
+      </c>
+      <c r="AF19" s="11">
         <f t="shared" si="6"/>
-        <v>2440</v>
-      </c>
-      <c r="V19" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0093167701863354E-2</v>
-      </c>
-      <c r="W19" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0089074569138944E-2</v>
-      </c>
-      <c r="X19" s="15">
-        <f t="shared" si="9"/>
-        <v>1.0093167701863354E-2</v>
-      </c>
-      <c r="Y19" s="15">
-        <f>(U19^2*(2*T19+U19))/((T19+U19)*(T19*U19*(T19+U19)+T19^2+T19*U19+U19^2))</f>
-        <v>1.0077938378224021E-2</v>
-      </c>
-      <c r="Z19" s="15">
-        <f>IF(J19/(J19+E19)&lt;F19/(F19+D19), E19/(E19+J19),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15">
-        <f>(E19/J19)/(1+(E19/J19)+(D19/F19))</f>
-        <v>4.0553499607982841E-4</v>
-      </c>
-      <c r="AB19" s="15">
-        <f t="shared" si="10"/>
-        <v>4.0966816878328555E-4</v>
-      </c>
-      <c r="AC19" s="15">
-        <f t="shared" si="11"/>
-        <v>3.0747978013518711E-5</v>
-      </c>
-      <c r="AD19" s="15">
-        <f>SUM(V19,Z19)/MAX(V19,Z19)</f>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="15">
-        <f>SUM(X19,AB19)/MAX(X19,AB19)</f>
-        <v>1.0405886616456055</v>
-      </c>
-      <c r="AF19" s="15">
-        <f>SUM(W19,AA19)/MAX(W19,AA19)</f>
         <v>1.0401954602774275</v>
       </c>
-      <c r="AG19" s="15">
-        <f t="shared" si="12"/>
+      <c r="AG19" s="11">
+        <f t="shared" si="18"/>
         <v>1.0030510186567481</v>
       </c>
     </row>
@@ -1838,7 +1866,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F33" si="13">AVERAGE(G20:H20)</f>
+        <f t="shared" ref="F20:F33" si="19">AVERAGE(G20:H20)</f>
         <v>7.77E-3</v>
       </c>
       <c r="G20">
@@ -1848,11 +1876,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4459999999999999E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K20">
@@ -1862,75 +1890,75 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M20">
+        <f t="shared" si="10"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="11"/>
+        <v>25.06451612903226</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="12"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="11">
+        <f t="shared" si="14"/>
+        <v>3.4771782137959846E-2</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="15"/>
+        <v>3.8366336633663366E-2</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.669977402382505E-2</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>9.7065462753950338E-2</v>
+      </c>
+      <c r="AA20" s="11">
+        <f t="shared" si="3"/>
+        <v>9.3690323629949723E-2</v>
+      </c>
+      <c r="AB20" s="11">
+        <f t="shared" si="16"/>
+        <v>9.7065462753950338E-2</v>
+      </c>
+      <c r="AC20" s="11">
+        <f t="shared" si="17"/>
+        <v>8.9085173619152441E-2</v>
+      </c>
+      <c r="AD20" s="11">
         <f t="shared" si="4"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" t="s">
-        <v>94</v>
-      </c>
-      <c r="T20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="11">
         <f t="shared" si="5"/>
-        <v>25.06451612903226</v>
-      </c>
-      <c r="U20" s="14">
+        <v>1.3952624913654157</v>
+      </c>
+      <c r="AF20" s="11">
         <f t="shared" si="6"/>
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="V20" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="14">
-        <f t="shared" si="8"/>
-        <v>3.4771782137959846E-2</v>
-      </c>
-      <c r="X20" s="14">
-        <f t="shared" si="9"/>
-        <v>3.8366336633663366E-2</v>
-      </c>
-      <c r="Y20" s="14">
-        <f>(U20^2*(2*T20+U20))/((T20+U20)*(T20*U20*(T20+U20)+T20^2+T20*U20+U20^2))</f>
-        <v>1.669977402382505E-2</v>
-      </c>
-      <c r="Z20" s="14">
-        <f>IF(J20/(J20+E20)&lt;F20/(F20+D20), E20/(E20+J20),0)</f>
-        <v>9.7065462753950338E-2</v>
-      </c>
-      <c r="AA20" s="14">
-        <f>(E20/J20)/(1+(E20/J20)+(D20/F20))</f>
-        <v>9.3690323629949723E-2</v>
-      </c>
-      <c r="AB20" s="14">
-        <f t="shared" si="10"/>
-        <v>9.7065462753950338E-2</v>
-      </c>
-      <c r="AC20" s="14">
-        <f t="shared" si="11"/>
-        <v>8.9085173619152441E-2</v>
-      </c>
-      <c r="AD20" s="14">
-        <f>SUM(V20,Z20)/MAX(V20,Z20)</f>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="14">
-        <f>SUM(X20,AB20)/MAX(X20,AB20)</f>
-        <v>1.3952624913654157</v>
-      </c>
-      <c r="AF20" s="14">
-        <f>SUM(W20,AA20)/MAX(W20,AA20)</f>
         <v>1.371135254856185</v>
       </c>
-      <c r="AG20" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG20" s="11">
+        <f t="shared" si="18"/>
         <v>1.1874585112806557</v>
       </c>
     </row>
@@ -1951,7 +1979,7 @@
         <v>1.1E-5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.5649999999999999E-2</v>
       </c>
       <c r="G21">
@@ -1961,88 +1989,88 @@
         <v>0.19</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18870000000000001</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="R21" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="S21" t="s">
-        <v>92</v>
-      </c>
-      <c r="T21" s="14">
+        <v>102</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="11"/>
+        <v>63.766666666666666</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="12"/>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="13"/>
+        <v>1.5440041173443129E-2</v>
+      </c>
+      <c r="W21" s="11">
+        <f t="shared" si="14"/>
+        <v>1.5406669834962727E-2</v>
+      </c>
+      <c r="X21" s="11">
+        <f t="shared" si="15"/>
+        <v>1.5440041173443129E-2</v>
+      </c>
+      <c r="Y21" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5202293033324446E-2</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="11">
+        <f t="shared" si="3"/>
+        <v>2.1613503555808038E-3</v>
+      </c>
+      <c r="AB21" s="11">
+        <f t="shared" si="16"/>
+        <v>2.195170624625823E-3</v>
+      </c>
+      <c r="AC21" s="11">
+        <f t="shared" si="17"/>
+        <v>5.0004533952833911E-4</v>
+      </c>
+      <c r="AD21" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE21" s="11">
         <f t="shared" si="5"/>
-        <v>63.766666666666666</v>
-      </c>
-      <c r="U21" s="14">
+        <v>1.1421738841215991</v>
+      </c>
+      <c r="AF21" s="11">
         <f t="shared" si="6"/>
-        <v>454.54545454545456</v>
-      </c>
-      <c r="V21" s="14">
-        <f t="shared" si="7"/>
-        <v>1.5440041173443129E-2</v>
-      </c>
-      <c r="W21" s="14">
-        <f t="shared" si="8"/>
-        <v>1.5406669834962727E-2</v>
-      </c>
-      <c r="X21" s="14">
-        <f t="shared" si="9"/>
-        <v>1.5440041173443129E-2</v>
-      </c>
-      <c r="Y21" s="14">
-        <f>(U21^2*(2*T21+U21))/((T21+U21)*(T21*U21*(T21+U21)+T21^2+T21*U21+U21^2))</f>
-        <v>1.5202293033324446E-2</v>
-      </c>
-      <c r="Z21" s="14">
-        <f>IF(J21/(J21+E21)&lt;F21/(F21+D21), E21/(E21+J21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="14">
-        <f>(E21/J21)/(1+(E21/J21)+(D21/F21))</f>
-        <v>2.1613503555808038E-3</v>
-      </c>
-      <c r="AB21" s="14">
-        <f t="shared" si="10"/>
-        <v>2.195170624625823E-3</v>
-      </c>
-      <c r="AC21" s="14">
-        <f t="shared" si="11"/>
-        <v>5.0004533952833911E-4</v>
-      </c>
-      <c r="AD21" s="14">
-        <f>SUM(V21,Z21)/MAX(V21,Z21)</f>
-        <v>1</v>
-      </c>
-      <c r="AE21" s="14">
-        <f>SUM(X21,AB21)/MAX(X21,AB21)</f>
-        <v>1.1421738841215991</v>
-      </c>
-      <c r="AF21" s="14">
-        <f>SUM(W21,AA21)/MAX(W21,AA21)</f>
         <v>1.1402866666666664</v>
       </c>
-      <c r="AG21" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG21" s="11">
+        <f t="shared" si="18"/>
         <v>1.032892757588096</v>
       </c>
     </row>
@@ -2063,18 +2091,14 @@
         <v>0.01</v>
       </c>
       <c r="F22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <v>0.8</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="K22">
@@ -2084,75 +2108,75 @@
         <v>5.3</v>
       </c>
       <c r="M22">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>106</v>
+      </c>
+      <c r="S22" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="11">
+        <f t="shared" si="11"/>
+        <v>34.782608695652179</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="13"/>
+        <v>2.7946537059538271E-2</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" si="14"/>
+        <v>2.7884933318637714E-2</v>
+      </c>
+      <c r="X22" s="11">
+        <f t="shared" si="15"/>
+        <v>2.7946537059538271E-2</v>
+      </c>
+      <c r="Y22" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7792048862340202E-2</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="11">
+        <f t="shared" si="3"/>
+        <v>2.2043425548330209E-3</v>
+      </c>
+      <c r="AB22" s="11">
+        <f t="shared" si="16"/>
+        <v>2.2675736961451248E-3</v>
+      </c>
+      <c r="AC22" s="11">
+        <f t="shared" si="17"/>
+        <v>3.1178673736187906E-4</v>
+      </c>
+      <c r="AD22" s="11">
         <f t="shared" si="4"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="11">
         <f t="shared" si="5"/>
-        <v>34.782608695652179</v>
-      </c>
-      <c r="U22" s="14">
+        <v>1.0811397022577147</v>
+      </c>
+      <c r="AF22" s="11">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="V22" s="14">
-        <f t="shared" si="7"/>
-        <v>2.7946537059538271E-2</v>
-      </c>
-      <c r="W22" s="14">
-        <f t="shared" si="8"/>
-        <v>2.7884933318637714E-2</v>
-      </c>
-      <c r="X22" s="14">
-        <f t="shared" si="9"/>
-        <v>2.7946537059538271E-2</v>
-      </c>
-      <c r="Y22" s="14">
-        <f>(U22^2*(2*T22+U22))/((T22+U22)*(T22*U22*(T22+U22)+T22^2+T22*U22+U22^2))</f>
-        <v>2.7792048862340202E-2</v>
-      </c>
-      <c r="Z22" s="14">
-        <f>IF(J22/(J22+E22)&lt;F22/(F22+D22), E22/(E22+J22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="14">
-        <f>(E22/J22)/(1+(E22/J22)+(D22/F22))</f>
-        <v>2.2043425548330209E-3</v>
-      </c>
-      <c r="AB22" s="14">
-        <f t="shared" si="10"/>
-        <v>2.2675736961451248E-3</v>
-      </c>
-      <c r="AC22" s="14">
-        <f t="shared" si="11"/>
-        <v>3.1178673736187906E-4</v>
-      </c>
-      <c r="AD22" s="14">
-        <f>SUM(V22,Z22)/MAX(V22,Z22)</f>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="14">
-        <f>SUM(X22,AB22)/MAX(X22,AB22)</f>
-        <v>1.0811397022577147</v>
-      </c>
-      <c r="AF22" s="14">
-        <f>SUM(W22,AA22)/MAX(W22,AA22)</f>
         <v>1.0790513833992095</v>
       </c>
-      <c r="AG22" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG22" s="11">
+        <f t="shared" si="18"/>
         <v>1.0112185589089246</v>
       </c>
     </row>
@@ -2173,7 +2197,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="G23">
@@ -2183,11 +2207,11 @@
         <v>0.8</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.26</v>
       </c>
       <c r="K23">
@@ -2197,75 +2221,75 @@
         <v>0.26</v>
       </c>
       <c r="M23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" si="11"/>
+        <v>32.608695652173914</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="12"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="13"/>
+        <v>2.9754204398447604E-2</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="14"/>
+        <v>2.9446523537522157E-2</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" si="15"/>
+        <v>2.9754204398447604E-2</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7669211791882177E-2</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0340752412842229E-2</v>
+      </c>
+      <c r="AB23" s="11">
+        <f t="shared" si="16"/>
+        <v>1.0654490106544899E-2</v>
+      </c>
+      <c r="AC23" s="11">
+        <f t="shared" si="17"/>
+        <v>4.712708218847849E-3</v>
+      </c>
+      <c r="AD23" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="11">
         <f t="shared" si="5"/>
-        <v>32.608695652173914</v>
-      </c>
-      <c r="U23" s="14">
+        <v>1.3580835153199655</v>
+      </c>
+      <c r="AF23" s="11">
         <f t="shared" si="6"/>
-        <v>92.857142857142861</v>
-      </c>
-      <c r="V23" s="14">
-        <f t="shared" si="7"/>
-        <v>2.9754204398447604E-2</v>
-      </c>
-      <c r="W23" s="14">
-        <f t="shared" si="8"/>
-        <v>2.9446523537522157E-2</v>
-      </c>
-      <c r="X23" s="14">
-        <f t="shared" si="9"/>
-        <v>2.9754204398447604E-2</v>
-      </c>
-      <c r="Y23" s="14">
-        <f>(U23^2*(2*T23+U23))/((T23+U23)*(T23*U23*(T23+U23)+T23^2+T23*U23+U23^2))</f>
-        <v>2.7669211791882177E-2</v>
-      </c>
-      <c r="Z23" s="14">
-        <f>IF(J23/(J23+E23)&lt;F23/(F23+D23), E23/(E23+J23),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="14">
-        <f>(E23/J23)/(1+(E23/J23)+(D23/F23))</f>
-        <v>1.0340752412842229E-2</v>
-      </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0654490106544899E-2</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="11"/>
-        <v>4.712708218847849E-3</v>
-      </c>
-      <c r="AD23" s="14">
-        <f>SUM(V23,Z23)/MAX(V23,Z23)</f>
-        <v>1</v>
-      </c>
-      <c r="AE23" s="14">
-        <f>SUM(X23,AB23)/MAX(X23,AB23)</f>
-        <v>1.3580835153199655</v>
-      </c>
-      <c r="AF23" s="14">
-        <f>SUM(W23,AA23)/MAX(W23,AA23)</f>
         <v>1.3511705685618729</v>
       </c>
-      <c r="AG23" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG23" s="11">
+        <f t="shared" si="18"/>
         <v>1.1703231828320639</v>
       </c>
     </row>
@@ -2286,7 +2310,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="G24">
@@ -2296,11 +2320,11 @@
         <v>5.3</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.26</v>
       </c>
       <c r="K24">
@@ -2310,75 +2334,75 @@
         <v>0.26</v>
       </c>
       <c r="M24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="11">
+        <f t="shared" si="11"/>
+        <v>440</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="12"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="14"/>
+        <v>2.2434680564663652E-3</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" si="15"/>
+        <v>2.2675736961451248E-3</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" si="1"/>
+        <v>7.1510197651437478E-4</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0654490106544899E-2</v>
+      </c>
+      <c r="AA24" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0630587098332931E-2</v>
+      </c>
+      <c r="AB24" s="11">
+        <f t="shared" si="16"/>
+        <v>1.0654490106544899E-2</v>
+      </c>
+      <c r="AC24" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0326893464440953E-2</v>
+      </c>
+      <c r="AD24" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" t="s">
-        <v>56</v>
-      </c>
-      <c r="T24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="11">
         <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="U24" s="14">
+        <v>1.2128279883381925</v>
+      </c>
+      <c r="AF24" s="11">
         <f t="shared" si="6"/>
-        <v>92.857142857142861</v>
-      </c>
-      <c r="V24" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="14">
-        <f t="shared" si="8"/>
-        <v>2.2434680564663652E-3</v>
-      </c>
-      <c r="X24" s="14">
-        <f t="shared" si="9"/>
-        <v>2.2675736961451248E-3</v>
-      </c>
-      <c r="Y24" s="14">
-        <f>(U24^2*(2*T24+U24))/((T24+U24)*(T24*U24*(T24+U24)+T24^2+T24*U24+U24^2))</f>
-        <v>7.1510197651437478E-4</v>
-      </c>
-      <c r="Z24" s="14">
-        <f>IF(J24/(J24+E24)&lt;F24/(F24+D24), E24/(E24+J24),0)</f>
-        <v>1.0654490106544899E-2</v>
-      </c>
-      <c r="AA24" s="14">
-        <f>(E24/J24)/(1+(E24/J24)+(D24/F24))</f>
-        <v>1.0630587098332931E-2</v>
-      </c>
-      <c r="AB24" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0654490106544899E-2</v>
-      </c>
-      <c r="AC24" s="14">
-        <f t="shared" si="11"/>
-        <v>1.0326893464440953E-2</v>
-      </c>
-      <c r="AD24" s="14">
-        <f>SUM(V24,Z24)/MAX(V24,Z24)</f>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="14">
-        <f>SUM(X24,AB24)/MAX(X24,AB24)</f>
-        <v>1.2128279883381925</v>
-      </c>
-      <c r="AF24" s="14">
-        <f>SUM(W24,AA24)/MAX(W24,AA24)</f>
         <v>1.2110389610389609</v>
       </c>
-      <c r="AG24" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG24" s="11">
+        <f t="shared" si="18"/>
         <v>1.0692465724544091</v>
       </c>
     </row>
@@ -2399,7 +2423,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="G25">
@@ -2409,7 +2433,7 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="J25">
@@ -2423,75 +2447,75 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
         <v>49</v>
-      </c>
-      <c r="R25" t="s">
-        <v>57</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="11">
+        <f t="shared" si="11"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="12"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="V25" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <f t="shared" si="14"/>
+        <v>0.3669724770642202</v>
+      </c>
+      <c r="X25" s="11">
+        <f t="shared" si="15"/>
+        <v>0.625</v>
+      </c>
+      <c r="Y25" s="11">
+        <f t="shared" si="1"/>
+        <v>0.32780426303140142</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="AA25" s="11">
+        <f t="shared" si="3"/>
+        <v>0.41284403669724778</v>
+      </c>
+      <c r="AB25" s="11">
+        <f t="shared" si="16"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="AC25" s="11">
+        <f t="shared" si="17"/>
+        <v>0.39892045230684381</v>
+      </c>
+      <c r="AD25" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE25" s="11">
         <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="U25" s="14">
+        <v>1.9583333333333333</v>
+      </c>
+      <c r="AF25" s="11">
         <f t="shared" si="6"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="V25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="14">
-        <f t="shared" si="8"/>
-        <v>0.3669724770642202</v>
-      </c>
-      <c r="X25" s="14">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
-      </c>
-      <c r="Y25" s="14">
-        <f>(U25^2*(2*T25+U25))/((T25+U25)*(T25*U25*(T25+U25)+T25^2+T25*U25+U25^2))</f>
-        <v>0.32780426303140142</v>
-      </c>
-      <c r="Z25" s="14">
-        <f>IF(J25/(J25+E25)&lt;F25/(F25+D25), E25/(E25+J25),0)</f>
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="AA25" s="14">
-        <f>(E25/J25)/(1+(E25/J25)+(D25/F25))</f>
-        <v>0.41284403669724778</v>
-      </c>
-      <c r="AB25" s="14">
-        <f t="shared" si="10"/>
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="AC25" s="14">
-        <f t="shared" si="11"/>
-        <v>0.39892045230684381</v>
-      </c>
-      <c r="AD25" s="14">
-        <f>SUM(V25,Z25)/MAX(V25,Z25)</f>
-        <v>1</v>
-      </c>
-      <c r="AE25" s="14">
-        <f>SUM(X25,AB25)/MAX(X25,AB25)</f>
-        <v>1.9583333333333333</v>
-      </c>
-      <c r="AF25" s="14">
-        <f>SUM(W25,AA25)/MAX(W25,AA25)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="AG25" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG25" s="11">
+        <f t="shared" si="18"/>
         <v>1.8217283950617282</v>
       </c>
     </row>
@@ -2512,105 +2536,98 @@
         <v>9.3999999999999994E-5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G26" s="3">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H26">
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="K26" s="3">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I26">
+      <c r="L26" s="3">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="11"/>
+        <v>0.06</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="12"/>
+        <v>3.191489361702128</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="13"/>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="14"/>
+        <v>0.9269558769002596</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="15"/>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="Y26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.94276643506651603</v>
+      </c>
+      <c r="Z26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="AA26" s="11">
         <f t="shared" si="3"/>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="M26">
+        <v>1.7426770485724878E-2</v>
+      </c>
+      <c r="AB26" s="11">
+        <f t="shared" si="16"/>
+        <v>0.23857868020304565</v>
+      </c>
+      <c r="AC26" s="11">
+        <f t="shared" si="17"/>
+        <v>6.4831063160509335E-4</v>
+      </c>
+      <c r="AD26" s="11">
         <f t="shared" si="4"/>
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" t="s">
-        <v>90</v>
-      </c>
-      <c r="T26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="11">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="U26" s="14">
+        <v>1.2528934010152284</v>
+      </c>
+      <c r="AF26" s="11">
         <f t="shared" si="6"/>
-        <v>3.191489361702128</v>
-      </c>
-      <c r="V26" s="14">
-        <f t="shared" si="7"/>
-        <v>0.94339622641509435</v>
-      </c>
-      <c r="W26" s="14">
-        <f t="shared" si="8"/>
-        <v>0.9269558769002596</v>
-      </c>
-      <c r="X26" s="14">
-        <f t="shared" si="9"/>
-        <v>0.94339622641509435</v>
-      </c>
-      <c r="Y26" s="14">
-        <f>(U26^2*(2*T26+U26))/((T26+U26)*(T26*U26*(T26+U26)+T26^2+T26*U26+U26^2))</f>
-        <v>0.94276643506651603</v>
-      </c>
-      <c r="Z26" s="14">
-        <f>IF(J26/(J26+E26)&lt;F26/(F26+D26), E26/(E26+J26),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="14">
-        <f>(E26/J26)/(1+(E26/J26)+(D26/F26))</f>
-        <v>1.7426770485724878E-2</v>
-      </c>
-      <c r="AB26" s="14">
-        <f t="shared" si="10"/>
-        <v>0.23857868020304565</v>
-      </c>
-      <c r="AC26" s="14">
-        <f t="shared" si="11"/>
-        <v>6.4831063160509335E-4</v>
-      </c>
-      <c r="AD26" s="14">
-        <f>SUM(V26,Z26)/MAX(V26,Z26)</f>
-        <v>1</v>
-      </c>
-      <c r="AE26" s="14">
-        <f>SUM(X26,AB26)/MAX(X26,AB26)</f>
-        <v>1.2528934010152284</v>
-      </c>
-      <c r="AF26" s="14">
-        <f>SUM(W26,AA26)/MAX(W26,AA26)</f>
         <v>1.0187999999999999</v>
       </c>
-      <c r="AG26" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG26" s="11">
+        <f t="shared" si="18"/>
         <v>1.0006876683423285</v>
       </c>
     </row>
@@ -2631,7 +2648,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="G27">
@@ -2641,11 +2658,11 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K27">
@@ -2655,75 +2672,75 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M27">
+        <f t="shared" si="10"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" t="s">
+        <v>75</v>
+      </c>
+      <c r="T27" s="11">
+        <f t="shared" si="11"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V27" s="11">
+        <f t="shared" si="13"/>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="W27" s="11">
+        <f t="shared" si="14"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="X27" s="11">
+        <f t="shared" si="15"/>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="Y27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.58958861376486649</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <f t="shared" si="3"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="AB27" s="11">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC27" s="11">
+        <f t="shared" si="17"/>
+        <v>6.6614674725417572E-2</v>
+      </c>
+      <c r="AD27" s="11">
         <f t="shared" si="4"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" t="s">
-        <v>57</v>
-      </c>
-      <c r="S27" t="s">
-        <v>94</v>
-      </c>
-      <c r="T27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11">
         <f t="shared" si="5"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="U27" s="14">
+        <v>1.5185185185185184</v>
+      </c>
+      <c r="AF27" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V27" s="14">
-        <f t="shared" si="7"/>
-        <v>0.64285714285714279</v>
-      </c>
-      <c r="W27" s="14">
-        <f t="shared" si="8"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="X27" s="14">
-        <f t="shared" si="9"/>
-        <v>0.64285714285714279</v>
-      </c>
-      <c r="Y27" s="14">
-        <f>(U27^2*(2*T27+U27))/((T27+U27)*(T27*U27*(T27+U27)+T27^2+T27*U27+U27^2))</f>
-        <v>0.58958861376486649</v>
-      </c>
-      <c r="Z27" s="14">
-        <f>IF(J27/(J27+E27)&lt;F27/(F27+D27), E27/(E27+J27),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="14">
-        <f>(E27/J27)/(1+(E27/J27)+(D27/F27))</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="AB27" s="14">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AC27" s="14">
-        <f t="shared" si="11"/>
-        <v>6.6614674725417572E-2</v>
-      </c>
-      <c r="AD27" s="14">
-        <f>SUM(V27,Z27)/MAX(V27,Z27)</f>
-        <v>1</v>
-      </c>
-      <c r="AE27" s="14">
-        <f>SUM(X27,AB27)/MAX(X27,AB27)</f>
-        <v>1.5185185185185184</v>
-      </c>
-      <c r="AF27" s="14">
-        <f>SUM(W27,AA27)/MAX(W27,AA27)</f>
         <v>1.2777777777777777</v>
       </c>
-      <c r="AG27" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG27" s="11">
+        <f t="shared" si="18"/>
         <v>1.1129850088183422</v>
       </c>
     </row>
@@ -2743,92 +2760,92 @@
       <c r="E28">
         <v>1.4E-5</v>
       </c>
-      <c r="F28" s="11">
-        <f t="shared" si="13"/>
+      <c r="F28">
+        <f t="shared" si="19"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G28">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="K28">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" t="s">
         <v>50</v>
       </c>
-      <c r="R28" t="s">
-        <v>58</v>
-      </c>
       <c r="S28" t="s">
-        <v>90</v>
-      </c>
-      <c r="T28" s="14">
+        <v>74</v>
+      </c>
+      <c r="T28" s="11">
+        <f t="shared" si="11"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="U28" s="11">
+        <f t="shared" si="12"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="V28" s="11">
+        <f t="shared" si="13"/>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="W28" s="11">
+        <f t="shared" si="14"/>
+        <v>0.45747800586510262</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="15"/>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="Y28" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48257070335322982</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="11">
+        <f t="shared" si="3"/>
+        <v>0.10263929618768328</v>
+      </c>
+      <c r="AB28" s="11">
+        <f t="shared" si="16"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="AC28" s="11">
+        <f t="shared" si="17"/>
+        <v>3.7296568856051086E-2</v>
+      </c>
+      <c r="AD28" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="11">
         <f t="shared" si="5"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="U28" s="14">
+        <v>1.3711018711018712</v>
+      </c>
+      <c r="AF28" s="11">
         <f t="shared" si="6"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="V28" s="14">
-        <f t="shared" si="7"/>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="W28" s="14">
-        <f t="shared" si="8"/>
-        <v>0.45747800586510262</v>
-      </c>
-      <c r="X28" s="14">
-        <f t="shared" si="9"/>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="Y28" s="14">
-        <f>(U28^2*(2*T28+U28))/((T28+U28)*(T28*U28*(T28+U28)+T28^2+T28*U28+U28^2))</f>
-        <v>0.48257070335322982</v>
-      </c>
-      <c r="Z28" s="14">
-        <f>IF(J28/(J28+E28)&lt;F28/(F28+D28), E28/(E28+J28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="14">
-        <f>(E28/J28)/(1+(E28/J28)+(D28/F28))</f>
-        <v>0.10263929618768328</v>
-      </c>
-      <c r="AB28" s="14">
-        <f t="shared" si="10"/>
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="AC28" s="14">
-        <f t="shared" si="11"/>
-        <v>3.7296568856051086E-2</v>
-      </c>
-      <c r="AD28" s="14">
-        <f>SUM(V28,Z28)/MAX(V28,Z28)</f>
-        <v>1</v>
-      </c>
-      <c r="AE28" s="14">
-        <f>SUM(X28,AB28)/MAX(X28,AB28)</f>
-        <v>1.3711018711018712</v>
-      </c>
-      <c r="AF28" s="14">
-        <f>SUM(W28,AA28)/MAX(W28,AA28)</f>
         <v>1.2243589743589742</v>
       </c>
-      <c r="AG28" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG28" s="11">
+        <f t="shared" si="18"/>
         <v>1.07728726297906</v>
       </c>
     </row>
@@ -2849,7 +2866,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="F29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.5649999999999999E-2</v>
       </c>
       <c r="G29">
@@ -2859,88 +2876,88 @@
         <v>0.19</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18870000000000001</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K29">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>92</v>
-      </c>
-      <c r="T29" s="14">
+        <v>102</v>
+      </c>
+      <c r="T29" s="11">
+        <f t="shared" si="11"/>
+        <v>4.8553299492385786</v>
+      </c>
+      <c r="U29" s="11">
+        <f t="shared" si="12"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="V29" s="11">
+        <f t="shared" si="13"/>
+        <v>0.17078456870394451</v>
+      </c>
+      <c r="W29" s="11">
+        <f t="shared" si="14"/>
+        <v>0.17069964063826418</v>
+      </c>
+      <c r="X29" s="11">
+        <f t="shared" si="15"/>
+        <v>0.17078456870394451</v>
+      </c>
+      <c r="Y29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17078288089684504</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="11">
+        <f t="shared" si="3"/>
+        <v>4.9728184650913614E-4</v>
+      </c>
+      <c r="AB29" s="11">
+        <f t="shared" si="16"/>
+        <v>5.9964021587047766E-4</v>
+      </c>
+      <c r="AC29" s="11">
+        <f t="shared" si="17"/>
+        <v>2.8861801278231983E-6</v>
+      </c>
+      <c r="AD29" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="11">
         <f t="shared" si="5"/>
-        <v>4.8553299492385786</v>
-      </c>
-      <c r="U29" s="14">
+        <v>1.0035110913147542</v>
+      </c>
+      <c r="AF29" s="11">
         <f t="shared" si="6"/>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="V29" s="14">
-        <f t="shared" si="7"/>
-        <v>0.17078456870394451</v>
-      </c>
-      <c r="W29" s="14">
-        <f t="shared" si="8"/>
-        <v>0.17069964063826418</v>
-      </c>
-      <c r="X29" s="14">
-        <f t="shared" si="9"/>
-        <v>0.17078456870394451</v>
-      </c>
-      <c r="Y29" s="14">
-        <f>(U29^2*(2*T29+U29))/((T29+U29)*(T29*U29*(T29+U29)+T29^2+T29*U29+U29^2))</f>
-        <v>0.17078288089684504</v>
-      </c>
-      <c r="Z29" s="14">
-        <f>IF(J29/(J29+E29)&lt;F29/(F29+D29), E29/(E29+J29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="14">
-        <f>(E29/J29)/(1+(E29/J29)+(D29/F29))</f>
-        <v>4.9728184650913614E-4</v>
-      </c>
-      <c r="AB29" s="14">
-        <f t="shared" si="10"/>
-        <v>5.9964021587047766E-4</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" si="11"/>
-        <v>2.8861801278231983E-6</v>
-      </c>
-      <c r="AD29" s="14">
-        <f>SUM(V29,Z29)/MAX(V29,Z29)</f>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="14">
-        <f>SUM(X29,AB29)/MAX(X29,AB29)</f>
-        <v>1.0035110913147542</v>
-      </c>
-      <c r="AF29" s="14">
-        <f>SUM(W29,AA29)/MAX(W29,AA29)</f>
         <v>1.0029131979695431</v>
       </c>
-      <c r="AG29" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG29" s="11">
+        <f t="shared" si="18"/>
         <v>1.0000168997039556</v>
       </c>
     </row>
@@ -2961,7 +2978,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.5649999999999999E-2</v>
       </c>
       <c r="G30">
@@ -2971,88 +2988,88 @@
         <v>0.19</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18870000000000001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="S30" t="s">
-        <v>92</v>
-      </c>
-      <c r="T30" s="14">
+        <v>102</v>
+      </c>
+      <c r="T30" s="11">
+        <f t="shared" si="11"/>
+        <v>5.0342105263157899</v>
+      </c>
+      <c r="U30" s="11">
+        <f t="shared" si="12"/>
+        <v>625</v>
+      </c>
+      <c r="V30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16572176188399476</v>
+      </c>
+      <c r="W30" s="11">
+        <f t="shared" si="14"/>
+        <v>0.16550084388009237</v>
+      </c>
+      <c r="X30" s="11">
+        <f t="shared" si="15"/>
+        <v>0.16572176188399476</v>
+      </c>
+      <c r="Y30" s="11">
+        <f t="shared" si="1"/>
+        <v>0.16570941375055279</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3330657446004913E-3</v>
+      </c>
+      <c r="AB30" s="11">
+        <f t="shared" si="16"/>
+        <v>1.5974440894568689E-3</v>
+      </c>
+      <c r="AC30" s="11">
+        <f t="shared" si="17"/>
+        <v>2.1246379737900073E-5</v>
+      </c>
+      <c r="AD30" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="11">
         <f t="shared" si="5"/>
-        <v>5.0342105263157899</v>
-      </c>
-      <c r="U30" s="14">
+        <v>1.0096393139398014</v>
+      </c>
+      <c r="AF30" s="11">
         <f t="shared" si="6"/>
-        <v>625</v>
-      </c>
-      <c r="V30" s="14">
-        <f t="shared" si="7"/>
-        <v>0.16572176188399476</v>
-      </c>
-      <c r="W30" s="14">
-        <f t="shared" si="8"/>
-        <v>0.16550084388009237</v>
-      </c>
-      <c r="X30" s="14">
-        <f t="shared" si="9"/>
-        <v>0.16572176188399476</v>
-      </c>
-      <c r="Y30" s="14">
-        <f>(U30^2*(2*T30+U30))/((T30+U30)*(T30*U30*(T30+U30)+T30^2+T30*U30+U30^2))</f>
-        <v>0.16570941375055279</v>
-      </c>
-      <c r="Z30" s="14">
-        <f>IF(J30/(J30+E30)&lt;F30/(F30+D30), E30/(E30+J30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="14">
-        <f>(E30/J30)/(1+(E30/J30)+(D30/F30))</f>
-        <v>1.3330657446004913E-3</v>
-      </c>
-      <c r="AB30" s="14">
-        <f t="shared" si="10"/>
-        <v>1.5974440894568689E-3</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="11"/>
-        <v>2.1246379737900073E-5</v>
-      </c>
-      <c r="AD30" s="14">
-        <f>SUM(V30,Z30)/MAX(V30,Z30)</f>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="14">
-        <f>SUM(X30,AB30)/MAX(X30,AB30)</f>
-        <v>1.0096393139398014</v>
-      </c>
-      <c r="AF30" s="14">
-        <f>SUM(W30,AA30)/MAX(W30,AA30)</f>
         <v>1.0080547368421053</v>
       </c>
-      <c r="AG30" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG30" s="11">
+        <f t="shared" si="18"/>
         <v>1.0001282146816952</v>
       </c>
     </row>
@@ -3073,97 +3090,91 @@
         <v>8.4000000000000012E-3</v>
       </c>
       <c r="F31">
+        <f t="shared" si="19"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285707</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="12"/>
+        <v>1785.7142857142856</v>
+      </c>
+      <c r="V31" s="11">
         <f t="shared" si="13"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G31" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I31">
+        <v>0.21875</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="14"/>
+        <v>0.21865433872680706</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="15"/>
+        <v>0.21875</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="1"/>
+        <v>0.21874893746625423</v>
+      </c>
+      <c r="Z31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>15</v>
-      </c>
-      <c r="N31" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" t="s">
-        <v>54</v>
-      </c>
-      <c r="S31" t="s">
-        <v>97</v>
-      </c>
-      <c r="T31" s="14">
+      <c r="AA31" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3730867745361412E-4</v>
+      </c>
+      <c r="AB31" s="11">
+        <f t="shared" si="16"/>
+        <v>5.596865755177102E-4</v>
+      </c>
+      <c r="AC31" s="11">
+        <f t="shared" si="17"/>
+        <v>1.7447624414639079E-6</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE31" s="11">
         <f t="shared" si="5"/>
-        <v>3.5714285714285707</v>
-      </c>
-      <c r="U31" s="14">
+        <v>1.0025585672023667</v>
+      </c>
+      <c r="AF31" s="11">
         <f t="shared" si="6"/>
-        <v>1785.7142857142856</v>
-      </c>
-      <c r="V31" s="14">
-        <f t="shared" si="7"/>
-        <v>0.21875</v>
-      </c>
-      <c r="W31" s="14">
-        <f t="shared" si="8"/>
-        <v>0.21865433872680706</v>
-      </c>
-      <c r="X31" s="14">
-        <f t="shared" si="9"/>
-        <v>0.21875</v>
-      </c>
-      <c r="Y31" s="14">
-        <f>(U31^2*(2*T31+U31))/((T31+U31)*(T31*U31*(T31+U31)+T31^2+T31*U31+U31^2))</f>
-        <v>0.21874893746625423</v>
-      </c>
-      <c r="Z31" s="14">
-        <f>IF(J31/(J31+E31)&lt;F31/(F31+D31), E31/(E31+J31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14">
-        <f>(E31/J31)/(1+(E31/J31)+(D31/F31))</f>
-        <v>4.3730867745361412E-4</v>
-      </c>
-      <c r="AB31" s="14">
-        <f t="shared" si="10"/>
-        <v>5.596865755177102E-4</v>
-      </c>
-      <c r="AC31" s="14">
-        <f t="shared" si="11"/>
-        <v>1.7447624414639079E-6</v>
-      </c>
-      <c r="AD31" s="14">
-        <f>SUM(V31,Z31)/MAX(V31,Z31)</f>
-        <v>1</v>
-      </c>
-      <c r="AE31" s="14">
-        <f>SUM(X31,AB31)/MAX(X31,AB31)</f>
-        <v>1.0025585672023667</v>
-      </c>
-      <c r="AF31" s="14">
-        <f>SUM(W31,AA31)/MAX(W31,AA31)</f>
         <v>1.002</v>
       </c>
-      <c r="AG31" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG31" s="11">
+        <f t="shared" si="18"/>
         <v>1.0000079760956175</v>
       </c>
     </row>
@@ -3184,7 +3195,7 @@
         <v>8.8700000000000001E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G32">
@@ -3194,87 +3205,88 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="J32">
+        <f t="shared" si="9"/>
         <v>5.125</v>
       </c>
       <c r="K32">
         <v>5.125</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q32" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>94</v>
-      </c>
-      <c r="T32" s="14">
+        <v>75</v>
+      </c>
+      <c r="T32" s="11">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" si="12"/>
+        <v>57.779030439684327</v>
+      </c>
+      <c r="V32" s="11">
+        <f t="shared" si="13"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" si="14"/>
+        <v>8.9500890643009312E-2</v>
+      </c>
+      <c r="X32" s="11">
+        <f t="shared" si="15"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Y32" s="11">
+        <f t="shared" si="1"/>
+        <v>8.8724263304474513E-2</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="11">
+        <f t="shared" si="3"/>
+        <v>1.5490202926897418E-2</v>
+      </c>
+      <c r="AB32" s="11">
+        <f t="shared" si="16"/>
+        <v>1.7012869938815043E-2</v>
+      </c>
+      <c r="AC32" s="11">
+        <f t="shared" si="17"/>
+        <v>4.2902636023329022E-3</v>
+      </c>
+      <c r="AD32" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="U32" s="14">
+        <v>1.1871415693269654</v>
+      </c>
+      <c r="AF32" s="11">
         <f t="shared" si="6"/>
-        <v>57.779030439684327</v>
-      </c>
-      <c r="V32" s="14">
-        <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="W32" s="14">
-        <f t="shared" si="8"/>
-        <v>8.9500890643009312E-2</v>
-      </c>
-      <c r="X32" s="14">
-        <f t="shared" si="9"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="Y32" s="14">
-        <f>(U32^2*(2*T32+U32))/((T32+U32)*(T32*U32*(T32+U32)+T32^2+T32*U32+U32^2))</f>
-        <v>8.8724263304474513E-2</v>
-      </c>
-      <c r="Z32" s="14">
-        <f>IF(J32/(J32+E32)&lt;F32/(F32+D32), E32/(E32+J32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="14">
-        <f>(E32/J32)/(1+(E32/J32)+(D32/F32))</f>
-        <v>1.5490202926897418E-2</v>
-      </c>
-      <c r="AB32" s="14">
-        <f t="shared" si="10"/>
-        <v>1.7012869938815043E-2</v>
-      </c>
-      <c r="AC32" s="14">
-        <f t="shared" si="11"/>
-        <v>4.2902636023329022E-3</v>
-      </c>
-      <c r="AD32" s="14">
-        <f>SUM(V32,Z32)/MAX(V32,Z32)</f>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="14">
-        <f>SUM(X32,AB32)/MAX(X32,AB32)</f>
-        <v>1.1871415693269654</v>
-      </c>
-      <c r="AF32" s="14">
-        <f>SUM(W32,AA32)/MAX(W32,AA32)</f>
         <v>1.1730731707317072</v>
       </c>
-      <c r="AG32" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG32" s="11">
+        <f t="shared" si="18"/>
         <v>1.048355020853879</v>
       </c>
     </row>
@@ -3295,7 +3307,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G33">
@@ -3305,87 +3317,88 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="J33">
+        <f t="shared" si="9"/>
         <v>5.125</v>
       </c>
       <c r="K33">
         <v>5.125</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>94</v>
-      </c>
-      <c r="T33" s="14">
+        <v>75</v>
+      </c>
+      <c r="T33" s="11">
+        <f t="shared" si="11"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="U33" s="11">
+        <f t="shared" si="12"/>
+        <v>899.12280701754378</v>
+      </c>
+      <c r="V33" s="11">
+        <f t="shared" si="13"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="W33" s="11">
+        <f t="shared" si="14"/>
+        <v>0.10102260059003768</v>
+      </c>
+      <c r="X33" s="11">
+        <f t="shared" si="15"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="Y33" s="11">
+        <f t="shared" si="1"/>
+        <v>0.10111291503192259</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="11">
+        <f t="shared" si="3"/>
+        <v>9.9872749851614507E-4</v>
+      </c>
+      <c r="AB33" s="11">
+        <f t="shared" si="16"/>
+        <v>1.1109595181943985E-3</v>
+      </c>
+      <c r="AC33" s="11">
+        <f t="shared" si="17"/>
+        <v>1.9477436005666253E-5</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE33" s="11">
         <f t="shared" si="5"/>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="U33" s="14">
+        <v>1.010986155235478</v>
+      </c>
+      <c r="AF33" s="11">
         <f t="shared" si="6"/>
-        <v>899.12280701754378</v>
-      </c>
-      <c r="V33" s="14">
-        <f t="shared" si="7"/>
-        <v>0.10112359550561797</v>
-      </c>
-      <c r="W33" s="14">
-        <f t="shared" si="8"/>
-        <v>0.10102260059003768</v>
-      </c>
-      <c r="X33" s="14">
-        <f t="shared" si="9"/>
-        <v>0.10112359550561797</v>
-      </c>
-      <c r="Y33" s="14">
-        <f>(U33^2*(2*T33+U33))/((T33+U33)*(T33*U33*(T33+U33)+T33^2+T33*U33+U33^2))</f>
-        <v>0.10111291503192259</v>
-      </c>
-      <c r="Z33" s="14">
-        <f>IF(J33/(J33+E33)&lt;F33/(F33+D33), E33/(E33+J33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="14">
-        <f>(E33/J33)/(1+(E33/J33)+(D33/F33))</f>
-        <v>9.9872749851614507E-4</v>
-      </c>
-      <c r="AB33" s="14">
-        <f t="shared" si="10"/>
-        <v>1.1109595181943985E-3</v>
-      </c>
-      <c r="AC33" s="14">
-        <f t="shared" si="11"/>
-        <v>1.9477436005666253E-5</v>
-      </c>
-      <c r="AD33" s="14">
-        <f>SUM(V33,Z33)/MAX(V33,Z33)</f>
-        <v>1</v>
-      </c>
-      <c r="AE33" s="14">
-        <f>SUM(X33,AB33)/MAX(X33,AB33)</f>
-        <v>1.010986155235478</v>
-      </c>
-      <c r="AF33" s="14">
-        <f>SUM(W33,AA33)/MAX(W33,AA33)</f>
         <v>1.0098861788617888</v>
       </c>
-      <c r="AG33" s="14">
-        <f t="shared" si="12"/>
+      <c r="AG33" s="11">
+        <f t="shared" si="18"/>
         <v>1.0001926305457569</v>
       </c>
     </row>
